--- a/reports/Student#1/D04/Testing Data.xlsx
+++ b/reports/Student#1/D04/Testing Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agude\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agude\Downloads\Workspace-25\Projects\Acme-ANS-D04\reports\Student#1\D04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C602F4-31E7-41DA-9C5C-357934C226BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F76728-5952-4EED-8B70-1371DB885B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F83C7813-534B-4913-A350-0BBC451AEBFF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{F83C7813-534B-4913-A350-0BBC451AEBFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Flight" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
   <si>
     <t>String</t>
   </si>
@@ -379,9 +379,6 @@
     <t>2022/07/29 23:59</t>
   </si>
   <si>
-    <t>Aircraft</t>
-  </si>
-  <si>
     <t>2066/07/09 00:10</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>2066/07/09 02:20</t>
   </si>
   <si>
-    <t>Duration</t>
-  </si>
-  <si>
     <t>2200/12/31 23:57</t>
   </si>
   <si>
@@ -458,6 +452,33 @@
   </si>
   <si>
     <t>EUR 889900.56</t>
+  </si>
+  <si>
+    <t>GBP 30.00</t>
+  </si>
+  <si>
+    <t>DOL -300.00</t>
+  </si>
+  <si>
+    <t>EUR -0.01</t>
+  </si>
+  <si>
+    <t>EUR -0.02</t>
+  </si>
+  <si>
+    <t>MA20000</t>
+  </si>
+  <si>
+    <t>MAa0000</t>
+  </si>
+  <si>
+    <t>MAX$000</t>
+  </si>
+  <si>
+    <t>Wrong duration times</t>
+  </si>
+  <si>
+    <t>Dates overalping with Aircraft 0006</t>
   </si>
 </sst>
 </file>
@@ -642,10 +663,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -967,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9421D9C5-1C6E-483C-A323-415F82C5FE3C}">
   <dimension ref="B6:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,7 +1078,7 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>11</v>
@@ -1073,7 +1090,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>10</v>
@@ -1085,7 +1102,7 @@
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>12</v>
@@ -1097,7 +1114,7 @@
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>15</v>
@@ -1109,7 +1126,7 @@
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>16</v>
@@ -1191,7 +1208,6 @@
     </row>
     <row r="24" spans="2:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
         <v>37</v>
       </c>
@@ -1202,7 +1218,9 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="2:6" ht="187.2" x14ac:dyDescent="0.3">
@@ -1210,7 +1228,9 @@
         <v>22</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="F26" s="6" t="s">
         <v>38</v>
       </c>
@@ -1218,13 +1238,17 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -1304,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241BF644-6819-4D55-AD51-47CEC2796329}">
-  <dimension ref="B4:E46"/>
+  <dimension ref="B4:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,9 +1339,12 @@
     <col min="3" max="3" width="18.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>79</v>
       </c>
@@ -1327,17 +1354,21 @@
       <c r="E4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -1350,8 +1381,14 @@
       <c r="E7" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>82</v>
       </c>
@@ -1361,8 +1398,14 @@
       <c r="E8" s="11" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>83</v>
       </c>
@@ -1372,8 +1415,14 @@
       <c r="E9" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>85</v>
       </c>
@@ -1383,8 +1432,14 @@
       <c r="E10" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>86</v>
       </c>
@@ -1394,8 +1449,14 @@
       <c r="E11" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>87</v>
       </c>
@@ -1405,36 +1466,56 @@
       <c r="E12" s="11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D13" s="11" t="s">
         <v>107</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D14" s="11" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>88</v>
       </c>
@@ -1447,8 +1528,18 @@
       <c r="E18" s="11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>90</v>
       </c>
@@ -1458,8 +1549,20 @@
       <c r="E19" s="11" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G19" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>91</v>
       </c>
@@ -1469,8 +1572,20 @@
       <c r="E20" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>92</v>
       </c>
@@ -1480,195 +1595,86 @@
       <c r="E21" s="11" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J22" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>93</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J24" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="11"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D31" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D32" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D36" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D37" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D40" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D42" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D43" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D44" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D45" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>134</v>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1918,23 +1924,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5a075dc9-573f-4d65-82df-bc0a42da9f9a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100576391AB0061D64CAFE75ACC18D62A98" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c0c84865e35dfc14dd61ead192be521f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5a075dc9-573f-4d65-82df-bc0a42da9f9a" xmlns:ns4="78cf34ab-1f0d-4712-939b-859e16aebce9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e1f256d03055219f2d05392749ae4a82" ns3:_="" ns4:_="">
     <xsd:import namespace="5a075dc9-573f-4d65-82df-bc0a42da9f9a"/>
@@ -2129,32 +2118,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0185D80A-0B77-41D2-99ED-61C11B14AC93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="5a075dc9-573f-4d65-82df-bc0a42da9f9a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="78cf34ab-1f0d-4712-939b-859e16aebce9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AD72AE-54CF-4F5C-8F80-074FDE67DDB8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5a075dc9-573f-4d65-82df-bc0a42da9f9a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AB67CBA-B488-4420-8554-E2F69A8230FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2171,4 +2152,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{98AD72AE-54CF-4F5C-8F80-074FDE67DDB8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0185D80A-0B77-41D2-99ED-61C11B14AC93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="5a075dc9-573f-4d65-82df-bc0a42da9f9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="78cf34ab-1f0d-4712-939b-859e16aebce9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>